--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1369.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1369.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.217830146081913</v>
+        <v>1.253221392631531</v>
       </c>
       <c r="B1">
-        <v>2.569787149756004</v>
+        <v>2.701875448226929</v>
       </c>
       <c r="C1">
-        <v>3.644897605461</v>
+        <v>8.473056793212891</v>
       </c>
       <c r="D1">
-        <v>2.972092097247601</v>
+        <v>2.081536054611206</v>
       </c>
       <c r="E1">
-        <v>1.126900056683882</v>
+        <v>1.137606263160706</v>
       </c>
     </row>
   </sheetData>
